--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EEE6C-585F-004C-9369-479B5010E144}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5836E-B90E-2345-B7E3-08B60D551F6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="4020" windowWidth="28040" windowHeight="17440" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="1080" yWindow="3880" windowWidth="26580" windowHeight="15900" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$49</definedName>
+    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
   <si>
     <t>Ref</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, C2, C3, </t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>10u</t>
   </si>
   <si>
-    <t xml:space="preserve">C10, C11, C12, C38, </t>
-  </si>
-  <si>
     <t xml:space="preserve">C14, C18, </t>
   </si>
   <si>
@@ -408,17 +402,177 @@
     <t>12.288MHz</t>
   </si>
   <si>
-    <t>1µ</t>
+    <t>Mouser Part</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07300KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-071ML</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0710RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0720RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07470KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07470RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-073K3L</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07270RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07220RL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0747KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0722KL</t>
+  </si>
+  <si>
+    <t>579-MCP1702T5002E/MB</t>
+  </si>
+  <si>
+    <t>595-CD74HC4050M96</t>
+  </si>
+  <si>
+    <t>621-AP7312-1833W6-7</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>863-MC74HC14ADR2G</t>
+  </si>
+  <si>
+    <t>485-1681</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>700-MAX4741EKA+T</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328PB-AN</t>
+  </si>
+  <si>
+    <t>512-QRE1113GR</t>
+  </si>
+  <si>
+    <t>798-DM3AT-SF-PEJM540</t>
+  </si>
+  <si>
+    <t>863-BAV99LT1G</t>
+  </si>
+  <si>
+    <t>490-SJ1-3523N</t>
+  </si>
+  <si>
+    <t>490-SJ1-2503A</t>
+  </si>
+  <si>
+    <t>942-IRF7319TRPBF</t>
+  </si>
+  <si>
+    <t>863-BC847BLT1G</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1C100R</t>
+  </si>
+  <si>
+    <t>80-C0805C105M4V</t>
+  </si>
+  <si>
+    <t>80-C0805C104K3RACTM</t>
+  </si>
+  <si>
+    <t>80-C0805C473K5R</t>
+  </si>
+  <si>
+    <t>80-C0805C103J5R</t>
+  </si>
+  <si>
+    <t>80-C0805C332K5R</t>
+  </si>
+  <si>
+    <t>80-C0805C330J5G</t>
+  </si>
+  <si>
+    <t>80-C0805C220J5R</t>
+  </si>
+  <si>
+    <t>81-GRM21BC81C106MA3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5, C2, C3, C10, C11, C12, C38, </t>
+  </si>
+  <si>
+    <t>538-22-28-4361</t>
+  </si>
+  <si>
+    <t>717-7A-12.288MAAJ-T</t>
+  </si>
+  <si>
+    <t>717-7A-16.000MAAJ-T</t>
+  </si>
+  <si>
+    <t>642-MJTP1230</t>
+  </si>
+  <si>
+    <t>652-PEC11L4220FS0015</t>
+  </si>
+  <si>
+    <t>2,5mm Stecker</t>
+  </si>
+  <si>
+    <t>490-SP-2501</t>
+  </si>
+  <si>
+    <t>171-PA2281-2-E</t>
+  </si>
+  <si>
+    <t>alternativer Stecker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,11 +598,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,22 +927,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,92 +960,116 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -894,357 +1080,429 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
       <c r="D24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
       <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>470</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>470</v>
+      <c r="C28" t="s">
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>270</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
-      <c r="C31">
-        <v>220</v>
+      <c r="C31" t="s">
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1255,217 +1513,261 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>115</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
+      <c r="F48" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>117</v>
+        <v>164</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5836E-B90E-2345-B7E3-08B60D551F6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BD484-C61A-524A-81CA-22F9D378AC36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3880" windowWidth="26580" windowHeight="15900" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="1080" yWindow="3880" windowWidth="28040" windowHeight="21420" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0DBAB660-BB20-EE4A-B8BD-785C01FE9690}" name="Synkino-BOM" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/Synkino-BOM.csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Synkino-BOM" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/Synkino-BOM.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField type="text"/>
         <textField/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Synkino-BOM" connectionId="1" xr16:uid="{CDE1A1EF-4DDE-E949-BEBA-6D9F1B417045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Synkino-BOM" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,15 +929,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
@@ -1086,7 +1086,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -1772,6 +1772,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="49" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BD484-C61A-524A-81CA-22F9D378AC36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2791D-330F-D94E-9976-A00958DD91FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3880" windowWidth="28040" windowHeight="21420" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="0" yWindow="4740" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$48</definedName>
+    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="179">
   <si>
     <t>Ref</t>
   </si>
@@ -135,15 +135,6 @@
     <t>LEDs:LED_0805_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">J1, </t>
-  </si>
-  <si>
-    <t>Conn_01x02_Male</t>
-  </si>
-  <si>
-    <t>Connectors_Molex:Molex_KK-6410-02_02x2.54mm_Straight</t>
-  </si>
-  <si>
     <t xml:space="preserve">J2, J12, </t>
   </si>
   <si>
@@ -180,12 +171,6 @@
     <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
-    <t xml:space="preserve">JP1, </t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x02_Pitch2.54mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1, </t>
   </si>
   <si>
@@ -270,18 +255,9 @@
     <t>22k</t>
   </si>
   <si>
-    <t xml:space="preserve">SW1, SW3, </t>
-  </si>
-  <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
     <t>Buttons_Switches_THT:SW_PUSH_6mm_h5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">SW2, </t>
-  </si>
-  <si>
     <t>Rotary_Encoder_Switch</t>
   </si>
   <si>
@@ -405,9 +381,6 @@
     <t>Mouser Part</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>603-RC0805FR-07300KL</t>
   </si>
   <si>
@@ -468,12 +441,6 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>700-MAX4741EKA+T</t>
-  </si>
-  <si>
-    <t>556-ATMEGA328PB-AN</t>
-  </si>
-  <si>
     <t>512-QRE1113GR</t>
   </si>
   <si>
@@ -501,9 +468,6 @@
     <t>80-C0805C105M4V</t>
   </si>
   <si>
-    <t>80-C0805C104K3RACTM</t>
-  </si>
-  <si>
     <t>80-C0805C473K5R</t>
   </si>
   <si>
@@ -550,6 +514,75 @@
   </si>
   <si>
     <t>alternativer Stecker</t>
+  </si>
+  <si>
+    <t>in stock</t>
+  </si>
+  <si>
+    <t>Encoder Kappe</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/5pcs-lot-LXN17x14-Mini-Aluminum-Alloy-Knobs-Cap-17x14mm-Mounting-6mm-Black-For-Rotary-potentiometer/32843175222.html?spm=a2g0s.9042311.0.0.MeQhJ3</t>
+  </si>
+  <si>
+    <t>needed for 100 kits</t>
+  </si>
+  <si>
+    <t>Kabel 2.5mm</t>
+  </si>
+  <si>
+    <t>open @ Ali</t>
+  </si>
+  <si>
+    <t>open @ Mouser</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>IRML2244</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>SZBX84C9V1LT3G</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW_Push Reset</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW_Push Power</t>
+  </si>
+  <si>
+    <t>863-SZBZX84C9V1LT3G</t>
+  </si>
+  <si>
+    <t>700-MAX4741EUA</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328-AU</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>80-C0805C104Z4V</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>dirtyPCB</t>
   </si>
 </sst>
 </file>
@@ -598,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -609,6 +642,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,9 +978,11 @@
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,15 +999,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -981,10 +1031,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="3">
+        <f>B2*100</f>
+        <v>700</v>
+      </c>
+      <c r="H2">
+        <f>71*7+92</f>
+        <v>589</v>
+      </c>
+      <c r="J2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K2" t="str">
+        <f>IF(G2-(SUM(H2:J2))&gt;0,G2-H2-I2-J2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,10 +1063,21 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G54" si="0">B3*100</f>
+        <v>400</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K54" si="1">IF(G3-(SUM(H3:J3))&gt;0,G3-H3-I3-J3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1015,10 +1091,21 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,10 +1119,21 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1049,10 +1147,21 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1066,10 +1175,21 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,10 +1203,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1100,10 +1231,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="H9">
+        <f>9*18</f>
+        <v>162</v>
+      </c>
+      <c r="J9">
+        <v>1800</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1117,10 +1263,21 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1134,10 +1291,21 @@
         <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1150,174 +1318,302 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>180</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>108</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="H22">
+        <v>1400</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1326,32 +1622,54 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1360,32 +1678,54 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1394,49 +1734,82 @@
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="4">
-        <v>270</v>
+        <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1445,329 +1818,645 @@
         <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H30">
+        <v>800</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H31">
+        <v>800</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H32">
+        <v>600</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <f>40+10</f>
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D38" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="D39" t="s">
         <v>77</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H39" s="6">
+        <v>110</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="F41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D42" t="s">
         <v>86</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="F42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H42" s="6">
+        <v>108</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>88</v>
       </c>
-      <c r="E38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <f>50+10</f>
+        <v>60</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="F44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>51</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H49" s="6">
+        <v>220</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46">
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="D53" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>166</v>
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2791D-330F-D94E-9976-A00958DD91FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C84F4-9E8F-6849-BFA2-19852B97A3C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4740" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Resistors_SMD:R_0805_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">R13, R19, R27, R28, R29, R24, R23, R26, R5, R4, R1, R3, R6, R10, </t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>dirtyPCB</t>
+  </si>
+  <si>
+    <t>R13, R19, R27, R28, R29, R24, R23, R26, R5, R4, R1, R3, R6, R10, R49</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,27 +999,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3">
         <f>B2*100</f>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G54" si="0">B3*100</f>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
@@ -1291,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>166</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -1372,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
@@ -1403,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -1434,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -1462,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
@@ -1487,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1515,7 +1515,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>164</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1569,7 +1569,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -1585,35 +1585,35 @@
     </row>
     <row r="22" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H22">
         <v>1400</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -1641,19 +1641,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1681,7 +1681,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1737,7 +1737,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
@@ -1753,19 +1753,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1793,23 +1793,23 @@
         <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H29">
-        <v>1000</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1821,7 +1821,7 @@
         <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -1837,19 +1837,19 @@
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="32" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -1893,19 +1893,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -1921,19 +1921,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>170</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>171</v>
-      </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>168</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>169</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
@@ -1978,19 +1978,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
@@ -2035,19 +2035,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
-        <v>74</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
@@ -2063,19 +2063,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
@@ -2122,19 +2122,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>81</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
@@ -2153,19 +2153,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
@@ -2181,22 +2181,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>88</v>
       </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
@@ -2216,19 +2216,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
-        <v>92</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
@@ -2250,19 +2250,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
@@ -2281,19 +2281,19 @@
     </row>
     <row r="46" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="3"/>
       <c r="K46" t="str">
@@ -2303,16 +2303,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3"/>
       <c r="K47" t="str">
@@ -2322,16 +2322,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
         <v>103</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
       </c>
       <c r="G48" s="3"/>
       <c r="K48" t="str">
@@ -2341,19 +2341,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
         <v>106</v>
       </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
@@ -2369,19 +2369,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G51" s="3"/>
       <c r="K51" t="str">
@@ -2410,10 +2410,10 @@
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="2"/>
       <c r="K52" t="str">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
@@ -2442,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" t="s">
         <v>177</v>
-      </c>
-      <c r="E54" t="s">
-        <v>178</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348C84F4-9E8F-6849-BFA2-19852B97A3C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A3903-3C56-4E4A-9B75-0C2E388456EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4740" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="840" yWindow="1200" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="180">
   <si>
     <t>Ref</t>
   </si>
@@ -402,9 +402,6 @@
     <t>603-RC0805FR-073K3L</t>
   </si>
   <si>
-    <t>603-RC0805FR-07270RL</t>
-  </si>
-  <si>
     <t>603-RC0805FR-07220RL</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>700-MAX4741EUA</t>
   </si>
   <si>
-    <t>556-ATMEGA328-AU</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
@@ -583,6 +577,15 @@
   </si>
   <si>
     <t>R13, R19, R27, R28, R29, R24, R23, R26, R5, R4, R1, R3, R6, R10, R49</t>
+  </si>
+  <si>
+    <t>556-ATMEGA328P-AU</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-07680RL</t>
+  </si>
+  <si>
+    <t>25 are wrong (328PB, not 328P)</t>
   </si>
 </sst>
 </file>
@@ -963,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,24 +1005,24 @@
         <v>109</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1031,18 +1034,14 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3">
         <f>B2*100</f>
         <v>700</v>
       </c>
       <c r="H2">
-        <f>71*7+92</f>
-        <v>589</v>
-      </c>
-      <c r="J2">
-        <v>150</v>
+        <v>739</v>
       </c>
       <c r="K2" t="str">
         <f>IF(G2-(SUM(H2:J2))&gt;0,G2-H2-I2-J2,"")</f>
@@ -1063,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G54" si="0">B3*100</f>
@@ -1091,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -1119,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
@@ -1147,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -1175,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
@@ -1203,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
@@ -1231,18 +1230,14 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="H9">
-        <f>9*18</f>
-        <v>162</v>
-      </c>
-      <c r="J9">
-        <v>1800</v>
+        <v>1962</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -1263,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
@@ -1291,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
@@ -1332,19 +1327,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>165</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -1372,17 +1367,14 @@
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="J14">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -1403,17 +1395,14 @@
         <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
@@ -1434,7 +1423,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -1462,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
@@ -1487,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1515,7 +1504,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -1531,13 +1520,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>163</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>164</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1585,7 +1574,7 @@
     </row>
     <row r="22" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -1604,11 +1593,11 @@
         <v>1500</v>
       </c>
       <c r="H22">
-        <v>1400</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2400</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1793,18 +1782,18 @@
         <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <v>1000</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,7 +1810,7 @@
         <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -1849,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -1877,7 +1866,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -1891,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -1919,21 +1908,21 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>169</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
@@ -1950,15 +1939,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>167</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
@@ -1976,9 +1965,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1990,35 +1979,32 @@
         <v>70</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>40</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
       <c r="K36">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
@@ -2033,7 +2019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
@@ -2061,7 +2047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -2075,7 +2061,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
@@ -2089,7 +2075,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -2103,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
@@ -2113,14 +2099,14 @@
         <v>10</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2134,24 +2120,21 @@
         <v>82</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H41">
-        <v>8</v>
-      </c>
-      <c r="J41">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2165,7 +2148,7 @@
         <v>85</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
@@ -2179,7 +2162,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2193,10 +2176,10 @@
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
@@ -2214,7 +2197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -2228,27 +2211,24 @@
         <v>91</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H44">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44">
         <v>24</v>
       </c>
-      <c r="J44">
-        <v>10</v>
-      </c>
       <c r="K44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2262,24 +2242,24 @@
         <v>94</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H45">
-        <v>51</v>
-      </c>
-      <c r="J45">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2293,7 +2273,7 @@
         <v>97</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="3"/>
       <c r="K46" t="str">
@@ -2301,7 +2281,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
@@ -2320,7 +2300,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>101</v>
       </c>
@@ -2353,7 +2333,7 @@
         <v>106</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
@@ -2381,26 +2361,26 @@
         <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G51" s="3"/>
       <c r="K51" t="str">
@@ -2410,10 +2390,10 @@
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="2"/>
       <c r="K52" t="str">
@@ -2426,15 +2406,18 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="I53">
+        <v>110</v>
+      </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2442,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A3903-3C56-4E4A-9B75-0C2E388456EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452CC94-25C0-0745-89B9-53EFD59D8D7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1200" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
@@ -970,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2096,10 +2096,10 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
@@ -2218,14 +2218,11 @@
         <v>100</v>
       </c>
       <c r="H44">
-        <v>52</v>
-      </c>
-      <c r="I44">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452CC94-25C0-0745-89B9-53EFD59D8D7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB1210-3BDE-444B-8B0D-AD3F56F7DD0A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1200" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$50</definedName>
+    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>Ref</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>25 are wrong (328PB, not 328P)</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>24LC256</t>
   </si>
 </sst>
 </file>
@@ -966,11 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,14 +1071,14 @@
         <v>142</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G54" si="0">B3*100</f>
+        <f t="shared" ref="G3:G55" si="0">B3*100</f>
         <v>400</v>
       </c>
       <c r="H3">
         <v>500</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K54" si="1">IF(G3-(SUM(H3:J3))&gt;0,G3-H3-I3-J3,"")</f>
+        <f t="shared" ref="K3:K55" si="1">IF(G3-(SUM(H3:J3))&gt;0,G3-H3-I3-J3,"")</f>
         <v/>
       </c>
     </row>
@@ -2096,10 +2102,10 @@
         <v>100</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
@@ -2278,37 +2284,36 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="K47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>181</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3"/>
       <c r="K48" t="str">
@@ -2318,27 +2323,18 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H49" s="6">
-        <v>220</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2346,95 +2342,123 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H50" s="6">
+        <v>220</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H50">
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H51">
         <v>110</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+      <c r="G52" s="3"/>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="K52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I53">
-        <v>110</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="1"/>
-        <v>90</v>
+      <c r="G53" s="2"/>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I54">
+        <v>110</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>174</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H54">
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H55">
         <v>11</v>
       </c>
-      <c r="K54">
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB1210-3BDE-444B-8B0D-AD3F56F7DD0A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9C3FB-D2ED-9849-9730-181F80987998}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1200" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>47k</t>
   </si>
   <si>
-    <t xml:space="preserve">R35, R36, R8, R11, R12, R2, </t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>24LC256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35, R36, R8, R11, R12, R2, R53 </t>
   </si>
 </sst>
 </file>
@@ -976,12 +976,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
@@ -1008,27 +1008,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3">
         <f>B2*100</f>
@@ -1068,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G55" si="0">B3*100</f>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
@@ -1292,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>164</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -1373,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -1429,7 +1429,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -1457,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
@@ -1482,7 +1482,7 @@
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1510,7 +1510,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>162</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1564,7 +1564,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="22" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -1592,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
@@ -1620,7 +1620,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -1648,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
@@ -1676,7 +1676,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -1704,7 +1704,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
@@ -1760,7 +1760,7 @@
         <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -1788,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
@@ -1816,7 +1816,7 @@
         <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -1844,7 +1844,7 @@
         <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -1860,47 +1860,47 @@
     </row>
     <row r="32" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H32">
         <v>600</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>168</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>169</v>
-      </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>166</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>167</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
@@ -1973,33 +1973,33 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>40</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
@@ -2055,19 +2055,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
@@ -2083,19 +2083,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>78</v>
       </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
@@ -2114,19 +2114,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>83</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
@@ -2170,22 +2170,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>89</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
@@ -2233,19 +2233,19 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
@@ -2259,24 +2259,24 @@
         <v>50</v>
       </c>
       <c r="M45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="3"/>
       <c r="K46" t="str">
@@ -2286,13 +2286,13 @@
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>180</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
@@ -2304,16 +2304,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
         <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
       </c>
       <c r="G48" s="3"/>
       <c r="K48" t="str">
@@ -2323,16 +2323,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
         <v>102</v>
-      </c>
-      <c r="D49" t="s">
-        <v>103</v>
       </c>
       <c r="G49" s="3"/>
       <c r="K49" t="str">
@@ -2342,19 +2342,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
@@ -2370,19 +2370,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G52" s="3"/>
       <c r="K52" t="str">
@@ -2411,10 +2411,10 @@
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G53" s="2"/>
       <c r="K53" t="str">
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>
@@ -2446,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
         <v>174</v>
-      </c>
-      <c r="E55" t="s">
-        <v>175</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>

--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9C3FB-D2ED-9849-9730-181F80987998}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3A519-29BE-E54B-B865-47E57C59CFCF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1200" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="27360" yWindow="2480" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$E$51</definedName>
+    <definedName name="Synkino_BOM" localSheetId="0">Sheet1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
   <si>
     <t>Ref</t>
   </si>
@@ -105,9 +106,6 @@
     <t>3n3</t>
   </si>
   <si>
-    <t xml:space="preserve">C30, C28, C15, C32, C33, C34, C37, C16, C20, C22, C26, C27, C29, C39, C1, C43, C4, C6, </t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -231,21 +229,12 @@
     <t xml:space="preserve">R30, R47, </t>
   </si>
   <si>
-    <t xml:space="preserve">R33, R31, R46, R42, R50, R40, R32, R43, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34, R38, R48, R44, R52, R41, R39, R45, </t>
-  </si>
-  <si>
     <t>47k</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R37, R7, </t>
-  </si>
-  <si>
     <t>22k</t>
   </si>
   <si>
@@ -477,9 +466,6 @@
     <t>81-GRM21BC81C106MA3L</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, C2, C3, C10, C11, C12, C38, </t>
-  </si>
-  <si>
     <t>538-22-28-4361</t>
   </si>
   <si>
@@ -513,9 +499,6 @@
     <t>Encoder Kappe</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/5pcs-lot-LXN17x14-Mini-Aluminum-Alloy-Knobs-Cap-17x14mm-Mounting-6mm-Black-For-Rotary-potentiometer/32843175222.html?spm=a2g0s.9042311.0.0.MeQhJ3</t>
-  </si>
-  <si>
     <t>needed for 100 kits</t>
   </si>
   <si>
@@ -573,9 +556,6 @@
     <t>dirtyPCB</t>
   </si>
   <si>
-    <t>R13, R19, R27, R28, R29, R24, R23, R26, R5, R4, R1, R3, R6, R10, R49</t>
-  </si>
-  <si>
     <t>556-ATMEGA328P-AU</t>
   </si>
   <si>
@@ -591,14 +571,41 @@
     <t>24LC256</t>
   </si>
   <si>
-    <t xml:space="preserve">R35, R36, R8, R11, R12, R2, R53 </t>
+    <t>http://www.jhiwor.com/index.php?route=product/product&amp;product_id=236</t>
+  </si>
+  <si>
+    <t>Pads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3, C5, C10, C11, C12, C38, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C4, C6, C15, C16, C20, C22, C26, C27, C28, C29, C30,  C32, C33, C34, C37, C39, C43 </t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R5, R6, R10, R13, R19, R23, R24, R26, R27, R28, R29, R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2, R8, R11, R12, R35, R36, R53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R37 </t>
+  </si>
+  <si>
+    <t>R31, R32, R33, R40, R42, R43, R46, R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34, R38, R39, R41, R44, R45, R48, R52,  </t>
+  </si>
+  <si>
+    <t>R51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -615,6 +622,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,10 +652,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,8 +670,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -972,11 +990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A9E284-C181-8342-A542-2F59AD3744EA}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,13 +1003,14 @@
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,30 +1024,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1039,22 +1061,26 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="E2">
+        <f>B2*2</f>
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="3">
         <f>B2*100</f>
         <v>700</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>739</v>
       </c>
-      <c r="K2" t="str">
-        <f>IF(G2-(SUM(H2:J2))&gt;0,G2-H2-I2-J2,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="str">
+        <f>IF(H2-(SUM(I2:K2))&gt;0,H2-I2-J2-K2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,22 +1093,26 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G55" si="0">B3*100</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">B3*2</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3">
+        <f>B3*100</f>
         <v>400</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>500</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K55" si="1">IF(G3-(SUM(H3:J3))&gt;0,G3-H3-I3-J3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L56" si="1">IF(H3-(SUM(I3:K3))&gt;0,H3-I3-J3-K3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,22 +1125,26 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="3">
+        <f>B4*100</f>
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,22 +1157,26 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="E5">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="3">
+        <f>B5*100</f>
         <v>200</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>200</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,22 +1189,26 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="3">
+        <f>B6*100</f>
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,22 +1221,26 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="E7">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="3">
+        <f>B7*100</f>
         <v>200</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>200</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1207,52 +1253,60 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="3">
+        <f>B8*100</f>
         <v>200</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>200</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f>B9*2</f>
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="3">
+        <f>B9*100</f>
         <v>1800</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1962</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1261,354 +1315,402 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="3">
+        <f>B10*100</f>
+        <v>600</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <f>B11*3</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="3">
+        <f>B11*100</f>
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <f>B12*100</f>
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <f>B13*3</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="3">
+        <f>B13*100</f>
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14">
+        <f>B14*4</f>
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="3">
+        <f>B14*100</f>
+        <v>200</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15">
+        <f>B15*3</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3">
+        <f>B15*100</f>
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <f>B16*14</f>
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="3">
+        <f>B16*100</f>
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>108</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="3">
+        <f>B17*100</f>
+        <v>800</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18">
+        <f>B18*8</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="3">
+        <f>B18*100</f>
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>108</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>108</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <f>B19*3</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="3">
+        <f>B19*100</f>
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <f>B20*3</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f>B20*100</f>
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>200</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>B21*2</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="3">
+        <f>B21*100</f>
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B22">
         <v>15</v>
       </c>
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E34" si="2">B22*2</f>
+        <v>30</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="3">
+        <f>B22*100</f>
+        <v>1500</v>
+      </c>
+      <c r="I22">
+        <v>2400</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="H22">
-        <v>2400</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1617,54 +1719,62 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="3">
+        <f>B23*100</f>
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="3">
+        <f>B24*100</f>
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1673,54 +1783,62 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="3">
+        <f>B25*100</f>
         <v>200</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>200</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="3">
+        <f>B26*100</f>
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1729,54 +1847,62 @@
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="3">
+        <f>B27*100</f>
         <v>200</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>200</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="3">
+        <f>B28*100</f>
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H28">
-        <v>200</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1785,26 +1911,30 @@
         <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="3">
+        <f>B29*100</f>
         <v>200</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1000</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1813,661 +1943,783 @@
         <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="3">
+        <f>B30*100</f>
         <v>800</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>800</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="3">
+        <f>B31*100</f>
         <v>800</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>800</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="3">
+        <f>B32*100</f>
         <v>700</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>600</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="3">
+        <f>B33*100</f>
         <v>200</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>200</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>168</v>
+      <c r="C34" s="4">
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H34">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <f>B34*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <f>B24*4</f>
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="3">
+        <f>B35*100</f>
+        <v>100</v>
+      </c>
+      <c r="I35">
         <v>50</v>
       </c>
-      <c r="I34">
-        <v>100</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36">
+        <f>B25*4</f>
+        <v>8</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <f>B36*100</f>
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <f>B37*7</f>
+        <v>7</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="3">
+        <f>B37*100</f>
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
         <v>50</v>
       </c>
-      <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>90</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H37">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="3">
+        <f>B38*100</f>
+        <v>100</v>
+      </c>
+      <c r="I38">
         <f>40+10</f>
         <v>50</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
+      <c r="J38">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39">
+        <f>B39*4</f>
+        <v>4</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="3">
+        <f>B39*100</f>
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>70</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E40">
+        <f>B40*16</f>
+        <v>16</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="3">
+        <f>B40*100</f>
+        <v>100</v>
+      </c>
+      <c r="I40" s="6">
+        <v>110</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <f>B41*7</f>
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="3">
+        <f>B41*100</f>
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <f>B42*6</f>
+        <v>6</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="3">
+        <f>B42*100</f>
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>108</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <f>B43*14</f>
+        <v>14</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H38">
+      <c r="H43" s="3">
+        <f>B43*100</f>
+        <v>100</v>
+      </c>
+      <c r="I43" s="6">
+        <v>108</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <f>B44*48</f>
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="3">
+        <f>B44*100</f>
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>96</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45">
+        <f>B45*8</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="3">
+        <f>B45*100</f>
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>77</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46">
+        <f>B46*32</f>
+        <v>64</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="3">
+        <f>B46*100</f>
+        <v>200</v>
+      </c>
+      <c r="I46">
+        <v>150</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H39" s="6">
-        <v>110</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47">
+        <f>B47*4</f>
+        <v>32</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>108</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H42" s="6">
-        <v>108</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>16</v>
-      </c>
-      <c r="I43">
-        <f>50+10</f>
-        <v>60</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H44">
-        <v>77</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="H47" s="3"/>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48">
+        <f>B48*8</f>
+        <v>8</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H45">
-        <v>150</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="M45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="K46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
-        <v>100</v>
-      </c>
-      <c r="H47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E51">
+        <f>B51*2</f>
+        <v>4</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="3">
+        <f>B51*100</f>
+        <v>200</v>
+      </c>
+      <c r="I51" s="6">
+        <v>220</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="K49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>103</v>
       </c>
-      <c r="B50">
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52">
+        <f>B52*2</f>
         <v>2</v>
       </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="3">
+        <f>B52*100</f>
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>110</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" si="0"/>
+      <c r="H54" s="2"/>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="3">
+        <f>B55*100</f>
         <v>200</v>
       </c>
-      <c r="H50" s="6">
-        <v>220</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H51">
+      <c r="I55">
         <v>110</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="K52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I54">
-        <v>110</v>
-      </c>
-      <c r="K54">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H55">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
+      <c r="H56" s="3">
+        <f>B56*100</f>
+        <v>100</v>
+      </c>
+      <c r="I56">
         <v>11</v>
       </c>
-      <c r="K55">
+      <c r="L56">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f>SUM(E2:E58)</f>
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G38" r:id="rId1" xr:uid="{AFA5A65B-2CDC-E749-8A2C-3EE10916C3D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="49" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84649FF-D3BC-B74C-B471-E8C2465ED788}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Synkino_KiCAD/BOM.xlsx
+++ b/Synkino_KiCAD/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peaceman/code/Arduino/Synkino/Synkino_KiCAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3A519-29BE-E54B-B865-47E57C59CFCF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7162B1C9-A45E-AA47-8626-3AF60008469E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="2480" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
+    <workbookView xWindow="21820" yWindow="1220" windowWidth="33120" windowHeight="26400" xr2:uid="{62282191-527B-B346-A9D5-F4127A77306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>47n</t>
   </si>
   <si>
-    <t xml:space="preserve">C21, C19, </t>
-  </si>
-  <si>
     <t>10n</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>100n</t>
   </si>
   <si>
-    <t xml:space="preserve">C35, C36, C31, C13, C23, C40, </t>
-  </si>
-  <si>
     <t>Capacitors_SMD:CP_Elec_4x5.8</t>
   </si>
   <si>
@@ -599,6 +593,12 @@
   </si>
   <si>
     <t>R51</t>
+  </si>
+  <si>
+    <t>C19, C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13, C23, C31, C35, C36, C40 </t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,33 +1024,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1066,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="3">
         <f>B2*100</f>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="3">
         <f>B3*100</f>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3">
         <f>B4*100</f>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" s="3">
         <f>B5*100</f>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" s="3">
         <f>B6*100</f>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="3">
         <f>B7*100</f>
@@ -1242,13 +1242,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="3">
         <f>B8*100</f>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="9" spans="1:12" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="3">
         <f>B9*100</f>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1315,14 +1315,14 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3">
         <f>B10*100</f>
@@ -1338,23 +1338,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <f>B11*3</f>
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="3">
         <f>B11*100</f>
@@ -1370,16 +1370,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1399,23 +1399,23 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <f>B13*3</f>
         <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H13" s="3">
         <f>B13*100</f>
@@ -1431,23 +1431,23 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <f>B14*4</f>
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" s="3">
         <f>B14*100</f>
@@ -1463,23 +1463,23 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
       <c r="E15">
         <f>B15*3</f>
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H15" s="3">
         <f>B15*100</f>
@@ -1495,23 +1495,23 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
       <c r="E16">
         <f>B16*14</f>
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3">
         <f>B16*100</f>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17" s="3">
         <f>B17*100</f>
@@ -1552,23 +1552,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
       </c>
       <c r="E18">
         <f>B18*8</f>
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H18" s="3">
         <f>B18*100</f>
@@ -1584,23 +1584,23 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
       </c>
       <c r="E19">
         <f>B19*3</f>
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3">
         <f>B19*100</f>
@@ -1616,16 +1616,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <f>B20*3</f>
@@ -1646,23 +1646,23 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
       </c>
       <c r="E21">
         <f>B21*2</f>
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3">
         <f>B21*100</f>
@@ -1678,23 +1678,23 @@
     </row>
     <row r="22" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:E34" si="2">B22*2</f>
         <v>30</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3">
         <f>B22*100</f>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1719,14 +1719,14 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="3">
         <f>B23*100</f>
@@ -1742,23 +1742,23 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3">
         <f>B24*100</f>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1783,14 +1783,14 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" s="3">
         <f>B25*100</f>
@@ -1806,23 +1806,23 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="3">
         <f>B26*100</f>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1847,14 +1847,14 @@
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H27" s="3">
         <f>B27*100</f>
@@ -1870,23 +1870,23 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H28" s="3">
         <f>B28*100</f>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1911,14 +1911,14 @@
         <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H29" s="3">
         <f>B29*100</f>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="30" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1943,14 +1943,14 @@
         <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H30" s="3">
         <f>B30*100</f>
@@ -1966,23 +1966,23 @@
     </row>
     <row r="31" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H31" s="3">
         <f>B31*100</f>
@@ -1998,23 +1998,23 @@
     </row>
     <row r="32" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="3">
         <f>B32*100</f>
@@ -2030,23 +2030,23 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H33" s="3">
         <f>B33*100</f>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
@@ -2085,33 +2085,30 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <f>B24*4</f>
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H35" s="3">
         <f>B35*100</f>
         <v>100</v>
       </c>
       <c r="I35">
-        <v>50</v>
-      </c>
-      <c r="J35">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
@@ -2120,13 +2117,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <f>B25*4</f>
@@ -2138,10 +2135,7 @@
         <v>100</v>
       </c>
       <c r="I36">
-        <v>50</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
@@ -2150,33 +2144,30 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <f>B37*7</f>
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37" s="3">
         <f>B37*100</f>
         <v>100</v>
       </c>
       <c r="I37">
-        <v>100</v>
-      </c>
-      <c r="J37">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
@@ -2188,21 +2179,17 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H38" s="3">
         <f>B38*100</f>
         <v>100</v>
       </c>
       <c r="I38">
-        <f>40+10</f>
-        <v>50</v>
-      </c>
-      <c r="J38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
@@ -2211,23 +2198,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
         <v>66</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
       </c>
       <c r="E39">
         <f>B39*4</f>
         <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H39" s="3">
         <f>B39*100</f>
@@ -2243,23 +2230,23 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
         <v>69</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
       </c>
       <c r="E40">
         <f>B40*16</f>
         <v>16</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H40" s="3">
         <f>B40*100</f>
@@ -2275,23 +2262,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
         <v>72</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" t="s">
-        <v>74</v>
       </c>
       <c r="E41">
         <f>B41*7</f>
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H41" s="3">
         <f>B41*100</f>
@@ -2310,23 +2297,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
         <v>75</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
       </c>
       <c r="E42">
         <f>B42*6</f>
         <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H42" s="3">
         <f>B42*100</f>
@@ -2342,23 +2329,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
         <v>78</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
       </c>
       <c r="E43">
         <f>B43*14</f>
         <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H43" s="3">
         <f>B43*100</f>
@@ -2374,26 +2361,26 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
         <v>81</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>83</v>
       </c>
       <c r="E44">
         <f>B44*48</f>
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="3">
         <f>B44*100</f>
@@ -2409,23 +2396,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
       </c>
       <c r="E45">
         <f>B45*8</f>
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H45" s="3">
         <f>B45*100</f>
@@ -2441,23 +2428,23 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46">
         <f>B46*32</f>
         <v>64</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H46" s="3">
         <f>B46*100</f>
@@ -2471,28 +2458,28 @@
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <f>B47*4</f>
         <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H47" s="3"/>
       <c r="L47" t="str">
@@ -2502,13 +2489,13 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E48">
         <f>B48*8</f>
@@ -2524,16 +2511,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H49" s="3"/>
       <c r="L49" t="str">
@@ -2543,16 +2530,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H50" s="3"/>
       <c r="L50" t="str">
@@ -2562,23 +2549,23 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <f>B51*2</f>
         <v>4</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H51" s="3">
         <f>B51*100</f>
@@ -2594,23 +2581,23 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <f>B52*2</f>
         <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H52" s="3">
         <f>B52*100</f>
@@ -2626,10 +2613,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H53" s="3"/>
       <c r="L53" t="str">
@@ -2639,10 +2626,10 @@
     </row>
     <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H54" s="2"/>
       <c r="L54" t="str">
@@ -2655,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H55" s="3">
         <f>B55*100</f>
@@ -2664,9 +2651,6 @@
       <c r="I55">
         <v>110</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
       <c r="L55">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2677,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H56" s="3">
         <f>B56*100</f>
